--- a/test/MiddlewareTests/MiddlewareTests/ScopedTraceLogger/TestJson.xlsx
+++ b/test/MiddlewareTests/MiddlewareTests/ScopedTraceLogger/TestJson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MitchellDenC\source\repos\EDennis.AspNetCore.Base\test\MiddlewareTests\MiddlewareTests\ScopedTraceLogger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denmi\source\repos\EDennis.AspNetCore.Base\test\MiddlewareTests\MiddlewareTests\ScopedTraceLogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE0E5BE-BC8C-4DC9-8364-47C4170581FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B192DD0F-24D7-47A5-8618-458E6B3C5F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="1095" windowWidth="19260" windowHeight="11055" xr2:uid="{914E17DC-A849-42DE-BD5C-694BB7A8109C}"/>
+    <workbookView xWindow="442" yWindow="0" windowWidth="18398" windowHeight="10800" xr2:uid="{914E17DC-A849-42DE-BD5C-694BB7A8109C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="28">
   <si>
     <t>ProjectName</t>
   </si>
@@ -90,18 +90,12 @@
     <t>header*X-User=shemp</t>
   </si>
   <si>
-    <t>X-User=shemp</t>
-  </si>
-  <si>
     <t>header*X-User=moe&amp;X-Clear-ScopedLogger=moe</t>
   </si>
   <si>
     <t>header*X-User=larry&amp;X-Clear-ScopedLogger=larry</t>
   </si>
   <si>
-    <t>X-User=curly&amp;X-Clear-ScopedLogger=curly</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -117,7 +111,10 @@
     <t>header*X-User=larry&amp;X-Set-ScopedLogger=larry</t>
   </si>
   <si>
-    <t>X-User=curly&amp;X-Set-ScopedLogger=curly</t>
+    <t>header*X-User=curly&amp;X-Set-ScopedLogger=curly</t>
+  </si>
+  <si>
+    <t>header*X-User=curly&amp;X-Clear-ScopedLogger=curly</t>
   </si>
 </sst>
 </file>
@@ -472,23 +469,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DF70F6-41B8-4967-A575-80BF52770920}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="1"/>
+    <col min="6" max="6" width="12.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.73046875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,12 +508,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -528,15 +525,15 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -551,12 +548,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -571,12 +568,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -588,15 +585,15 @@
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -608,15 +605,15 @@
         <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -628,15 +625,15 @@
         <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -648,15 +645,15 @@
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -671,12 +668,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -691,12 +688,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -708,15 +705,15 @@
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -728,15 +725,15 @@
         <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -748,15 +745,15 @@
         <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -768,15 +765,15 @@
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -791,12 +788,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -808,15 +805,15 @@
         <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -828,15 +825,15 @@
         <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -848,15 +845,15 @@
         <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -868,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
